--- a/Q1/defect_log.xlsx
+++ b/Q1/defect_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdw12_000\Desktop\Ara\BCPR280_Part1\Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BD7F31-CA6A-49FD-8C00-0F5EBE02A908}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD688A-D6D8-483C-AC25-09FAC3A57837}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>PSP Defect Recording Log</t>
   </si>
@@ -644,6 +644,18 @@
   </si>
   <si>
     <t>Number Guessing Game Q1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>When user puts none integer value, .e.g alphabet, word such as a string, should not increase the number of guess but it did. So fixed not to count if its not an integer.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +735,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -901,11 +913,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -969,15 +1012,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1319,7 +1369,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1437,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+      <c r="A7" s="27">
         <v>43554</v>
       </c>
       <c r="B7" s="24">
@@ -1413,7 +1463,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="27">
         <v>43554</v>
       </c>
       <c r="B8" s="24">
@@ -1439,7 +1489,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
+      <c r="A9" s="27">
         <v>43554</v>
       </c>
       <c r="B9" s="24">
@@ -1465,7 +1515,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="A10" s="27">
         <v>43554</v>
       </c>
       <c r="B10" s="24">
@@ -1491,7 +1541,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="27">
         <v>43554</v>
       </c>
       <c r="B11" s="24">
@@ -1517,7 +1567,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+      <c r="A12" s="27">
         <v>43554</v>
       </c>
       <c r="B12" s="24">
@@ -1543,7 +1593,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
+      <c r="A13" s="27">
         <v>43554</v>
       </c>
       <c r="B13" s="24">
@@ -1568,8 +1618,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="6"/>
+    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>43554</v>
+      </c>
+      <c r="B14" s="23">
+        <v>8</v>
+      </c>
+      <c r="C14" s="23">
+        <v>80</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H15" s="6"/>
